--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Учеба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\AgodaTestingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74E70F3-39E7-41ED-B41F-B3E574DBB678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A877EE81-3979-4069-B2E1-B78D3D68A39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,9 +303,6 @@
 2. Set the price by dragging the sliders</t>
   </si>
   <si>
-    <t>Check that the price value is not exactly null</t>
-  </si>
-  <si>
     <t>TC-16</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>Changing the site language</t>
+  </si>
+  <si>
+    <t>Check that the price value is greater than zero</t>
   </si>
 </sst>
 </file>
@@ -901,21 +901,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" customWidth="1"/>
     <col min="7" max="7" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -990,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -1019,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
@@ -1077,7 +1077,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
@@ -1106,7 +1106,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1135,7 +1135,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -1164,7 +1164,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -1193,7 +1193,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>37</v>
@@ -1222,7 +1222,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>55</v>
@@ -1251,7 +1251,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>55</v>
@@ -1280,7 +1280,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>55</v>
@@ -1309,7 +1309,7 @@
         <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>55</v>
@@ -1338,7 +1338,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>72</v>
@@ -1367,7 +1367,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>72</v>
@@ -1376,7 +1376,7 @@
         <v>77</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>15</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="17" spans="1:9" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -1393,19 +1393,19 @@
         <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="18" spans="1:9" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -1422,19 +1422,19 @@
         <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="19" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -1451,19 +1451,19 @@
         <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="20" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -1480,19 +1480,19 @@
         <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="21" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -1509,19 +1509,19 @@
         <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>15</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="22" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -1538,19 +1538,19 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>15</v>
@@ -1558,28 +1558,28 @@
     </row>
     <row r="23" spans="1:9" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
@@ -1587,25 +1587,25 @@
     </row>
     <row r="24" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>65</v>
@@ -1616,28 +1616,28 @@
     </row>
     <row r="25" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>15</v>
